--- a/7/2/5/Colocaciones oferentes créditos no bancarios 2011 a 2021 - Trimestral.xlsx
+++ b/7/2/5/Colocaciones oferentes créditos no bancarios 2011 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Serie</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1226,7 +1229,24 @@
         <v>1995</v>
       </c>
       <c r="E42">
-        <v>7364</v>
+        <v>7215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>4580</v>
+      </c>
+      <c r="C43">
+        <v>2332</v>
+      </c>
+      <c r="D43">
+        <v>1981</v>
+      </c>
+      <c r="E43">
+        <v>7418</v>
       </c>
     </row>
   </sheetData>
